--- a/Задания по Экселю/Задание_2.xlsx
+++ b/Задания по Экселю/Задание_2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal Computer\Desktop\SKGMI\Практика у Аллы Дадтеевой\Задания по Экселю\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal Computer\Desktop\SKGMI\MyPractice\Задания по Экселю\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB86B5-40D0-415E-B634-5A116B2B2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D465218B-88FC-4DE7-B362-DDD5F2BF9042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="2295" windowWidth="16545" windowHeight="12480" activeTab="1" xr2:uid="{75F012DE-E820-4532-ADA8-511C08E08729}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{75F012DE-E820-4532-ADA8-511C08E08729}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Оформленный" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Дата</t>
   </si>
@@ -80,14 +80,32 @@
   </si>
   <si>
     <t>ИТОГО:</t>
+  </si>
+  <si>
+    <t>Начислено
+процентов
+(в рублях)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,37 +181,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +542,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:J8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,183 +558,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>38403</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>38493</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>0.24</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>0.1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>50000</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>38357</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>38412</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>0.05</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>9000</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>38384</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>38416</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>0.05</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>6000</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>38443</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>38508</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.25</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>0.08</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>10000</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>38416</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>38451</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0.05</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>4000</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4">
         <v>1238</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>432</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -712,8 +744,6 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -723,195 +753,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E2E99E-A5D0-4C65-AFF1-32D7BA6B784F}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>38403</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>38493</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>0.24</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>0.1</v>
       </c>
-      <c r="E3" s="7">
-        <v>50000</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="E3" s="8">
+        <v>200</v>
+      </c>
+      <c r="F3" s="7">
+        <f>(E3*D3/100)*100</f>
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
+        <f>H3*F3</f>
+        <v>1800</v>
+      </c>
+      <c r="H3" s="1">
+        <f>B3-A3</f>
+        <v>90</v>
+      </c>
+      <c r="I3" s="1">
+        <v>500</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>38357</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>38412</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>9000</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="7">
+        <f>(E4*D4/100)*100</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="7">
+        <f>H4*F4</f>
+        <v>24750</v>
+      </c>
+      <c r="H4" s="6">
+        <f>B4-A4</f>
+        <v>55</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>38384</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>38416</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>6000</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="F5" s="7">
+        <f>(E5*D5/100)*100</f>
+        <v>300</v>
+      </c>
+      <c r="G5" s="7">
+        <f>H5*F5</f>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="6">
+        <f>B5-A5</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>38443</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>38508</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.25</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>0.08</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>10000</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="F6" s="7">
+        <f>(E6*D6/100)*100</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="7">
+        <f>H6*F6</f>
+        <v>52000</v>
+      </c>
+      <c r="H6" s="6">
+        <f>B6-A6</f>
+        <v>65</v>
+      </c>
+      <c r="I6" s="1">
+        <v>17000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>38416</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>38451</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>0.05</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>4000</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="7">
+        <f>(E7*D7/100)*100</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="7">
+        <f>H7*F7</f>
+        <v>7000</v>
+      </c>
+      <c r="H7" s="6">
+        <f>B7-A7</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7">
-        <v>1238</v>
-      </c>
-      <c r="J8" s="2">
-        <v>432</v>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4">
+        <f>SUM(I3:I7)</f>
+        <v>52500</v>
+      </c>
+      <c r="J8" s="3">
+        <f>SUM(J3:J7)</f>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -927,5 +1024,6 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>